--- a/experiment_implementation/data/stimuli_MultiplEYE_toy_x_x_1_1/multipleye_participant_instructions_toy.xlsx
+++ b/experiment_implementation/data/stimuli_MultiplEYE_toy_x_x_1_1/multipleye_participant_instructions_toy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/data/stimuli_MultiplEYE_toy_x_x_1_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation-2/data/stimuli_MultiplEYE_toy_x_x_1_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E42B3C25-B56F-434F-8129-FF188CBA1CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86929E-EA07-0443-BD9B-8419C4E3DFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multipleye_participant_instruct" sheetId="1" r:id="rId1"/>
@@ -139,14 +139,6 @@
     <t>subject_difficulty_screen</t>
   </si>
   <si>
-    <t>Please rate the difficulty of the text you just read. How difficult was the text for you to read and understand?
-1 ‚Äì very easy
-2 ‚Äì easy
-3 - neither easy nor difficult
-4 ‚Äì difficult
-5 ‚Äì very difficult</t>
-  </si>
-  <si>
     <t>presented after reading the text</t>
   </si>
   <si>
@@ -163,17 +155,25 @@
   </si>
   <si>
     <t xml:space="preserve">Please rate your familarity with the content of the text. How much of it were you familiar with?
-1 ‚Äì 0%
-2 ‚Äì 25%
-3 ‚Äì 50%
-4 ‚Äì 75%
-5 ‚Äì 100% </t>
+1  -0%
+2  -25%
+3 - 50%
+4 - 75%
+5 - 100% </t>
+  </si>
+  <si>
+    <t>Please rate the difficulty of the text you just read. How difficult was the text for you to read and understand?
+1 - very easy
+2 - easy
+3 - neither easy nor difficult
+4 - difficult
+5 - very difficult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1030,14 +1030,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="62.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1203,7 +1206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1211,10 +1214,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1222,27 +1225,27 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_implementation/data/stimuli_MultiplEYE_toy_x_x_1_1/multipleye_participant_instructions_toy.xlsx
+++ b/experiment_implementation/data/stimuli_MultiplEYE_toy_x_x_1_1/multipleye_participant_instructions_toy.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cui/Documents/uzh/PhD/Projects/MeRID/repository/wg1-image-creation/data/stimuli_MultiplEYE_toy_x_x_1_1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A092F-49A9-1D4C-BE4C-2832C75E3A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>instruction_screen_id</t>
   </si>
@@ -30,79 +37,75 @@
     <t>welcome_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome to the MultiplEYE study
+    <t>Welcome to the MultiplEYE study
 When you are ready, please press the space bar to proceed to the instructions.</t>
   </si>
   <si>
-    <t xml:space="preserve">this is the screen that participants will see upon entering the lab</t>
+    <t>this is the screen that participants will see upon entering the lab</t>
   </si>
   <si>
     <t>empty_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">I just leave this in here for the sake of transparency.</t>
+    <t>I just leave this in here for the sake of transparency.</t>
   </si>
   <si>
     <t>fixation_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">fixation dot in top left corner, no text</t>
+    <t>fixation dot in top left corner, no text</t>
   </si>
   <si>
     <t>obligatory_break_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">You should now take a 5 minute break. Feel free to get up, move your head, relax your eyes and get some water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shown before the obligatory break</t>
+    <t>You should now take a 5 minute break. Feel free to get up, move your head, relax your eyes and get some water.</t>
+  </si>
+  <si>
+    <t>shown before the obligatory break</t>
   </si>
   <si>
     <t>optional_break_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">If you wish, you may now take a break to rest or get some water. Or you may continue reading by pressing the space bar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This screen can be shown when there is an option for a break</t>
+    <t>If you wish, you may now take a break to rest or get some water. Or you may continue reading by pressing the space bar.</t>
+  </si>
+  <si>
+    <t>This screen can be shown when there is an option for a break</t>
   </si>
   <si>
     <t>final_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Thank you very much for your participation.
-Goodbye</t>
-  </si>
-  <si>
     <t>practice_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Now, we will begin with two practice texts so you can get an idea of the procedure of the experiment. If something is unclear or you have any questions, please speak to the experimenter.
+    <t>Now, we will begin with two practice texts so you can get an idea of the procedure of the experiment. If something is unclear or you have any questions, please speak to the experimenter.
 Please look at the black dot in the bottom right corner of the screen and press the space bar to start with the practice texts.</t>
   </si>
   <si>
-    <t xml:space="preserve">Right before practice stimuli</t>
+    <t>Right before practice stimuli</t>
   </si>
   <si>
     <t>transition_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">You have completed the practice texts. If you are ready, we will begin. Please try to move as little as possible while reading the texts. We may need to recalibrate the eye-tracker if you move too much. If you need a break during the experiment, please inform the experimenter.
+    <t>You have completed the practice texts. If you are ready, we will begin. Please try to move as little as possible while reading the texts. We may need to recalibrate the eye-tracker if you move too much. If you need a break during the experiment, please inform the experimenter.
 Please look at the dot in the bottom right corner of the screen and then press the space bar to begin.</t>
   </si>
   <si>
-    <t xml:space="preserve">After practice stimuli, before first stimulus</t>
+    <t>After practice stimuli, before first stimulus</t>
   </si>
   <si>
     <t>informed_consent_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Before starting the experiment, we require you to complete a written consent form. In this, we will explain the experimental procedure and usage and protection of your data.
+    <t>Before starting the experiment, we require you to complete a written consent form. In this, we will explain the experimental procedure and usage and protection of your data.
 The experimenter will provide this form now.
 Once you have signed the form, please look at the black dot in the bottom right corner of the screen and press the space bar to continue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Shown directly after the welcome screen. Participants need to sign the informed consent.</t>
+    <t>Shown directly after the welcome screen. Participants need to sign the informed consent.</t>
   </si>
   <si>
     <t>instruction_screen_2</t>
@@ -117,9 +120,6 @@
     <t>instruction_screen_3</t>
   </si>
   <si>
-    <t xml:space="preserve">After each text, you will be presented with several comprehension questions about the text. Each question will be presented on a separate screen together with four answer options. **There is only one correct answer.** Please select the correct answer option by using the arrow keys on the keyboard. The selected answer will be highlighted. Once you are happy with your answer, press the space bar to confirm your selection.</t>
-  </si>
-  <si>
     <t>instruction_screen_1</t>
   </si>
   <si>
@@ -132,7 +132,7 @@
     <t>subject_difficulty_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Please rate the difficulty of the text you just read. How difficult was the text for you to read and understand?
+    <t>Please rate the difficulty of the text you just read. How difficult was the text for you to read and understand?
 1 – very easy
 2 – easy
 3 - neither easy nor difficult
@@ -140,13 +140,13 @@
 5 – very difficult</t>
   </si>
   <si>
-    <t xml:space="preserve">presented after reading the text</t>
+    <t>presented after reading the text</t>
   </si>
   <si>
     <t>familiarity_rating_screen_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Have you read or listened to this text before? 
+    <t>Have you read or listened to this text before? 
 - Yes
 - No
 - Don't remember</t>
@@ -163,63 +163,96 @@
 5 – 100% </t>
   </si>
   <si>
-    <t>camera_setup_instruction_screen_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now we will adjust the focus of the camera and perform a calibration. Please follow the experimenter’s instructions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presented before the camera set-up, after the instructions</t>
-  </si>
-  <si>
-    <t>camera_setup_instruction_screen_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please move your finger close to your dominant eye. The experimenter will check if the correct eye is being tracked. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presented after the camera set-up</t>
+    <t>presented before the camera set-up, after the instructions</t>
   </si>
   <si>
     <t>camera_setup_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">To the experimenter: Please adjust the camera's focus and the CR and pupil thresholds. </t>
-  </si>
-  <si>
     <t>validation_screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Now, we will validate the calibration of the camera and, if necessary, re-calibrate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before each of the validations performed between trials.</t>
+    <t>Before each of the validations performed between trials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After each text, you will be presented with several comprehension questions about the text. Each question will be presented on a separate screen together with four answer options. **There is only one correct answer.** Please select the correct answer option by using the arrow keys on the keyboard. The selected answer will be highlighted. Once you are happy with your answer, press the space bar to confirm your selection. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please ask the experimenter to adjust the camera and calibrate.
+Press the space bar to go to the camera setup screen. 
+Move your finger close to your dominant eye. The experimenter will check if the correct eye is being tracked. </t>
+  </si>
+  <si>
+    <t>recalibration_screen</t>
+  </si>
+  <si>
+    <t>presented before a trial when its previous trial has more then one triggers that fail to trigger.</t>
+  </si>
+  <si>
+    <t>Thank you! You have completed the reading part!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, we will validate the calibration of the camera and, if necessary, re-calibrate. Press the space bar to go to the calibration screen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, we will recalibrate. Press the space bar to go to the calibration screen. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.000000"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -243,63 +276,71 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -307,308 +348,28 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="A1:D20">
-  <autoFilter ref="A1:D20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D19">
+  <autoFilter ref="A1:D19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="instruction_screen_id" dataDxfId="0"/>
-    <tableColumn id="2" name="instruction_screen_name"/>
-    <tableColumn id="3" name="instruction_screen_text" dataDxfId="1"/>
-    <tableColumn id="4" name="comment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="instruction_screen_id" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="instruction_screen_name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="instruction_screen_text" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -811,25 +572,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="100" workbookViewId="0">
-      <selection activeCell="K13" activeCellId="0" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C19" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.375"/>
-    <col customWidth="1" min="2" max="2" width="30.375"/>
-    <col customWidth="1" min="3" max="3" width="58.375"/>
-    <col customWidth="1" min="4" max="4" width="35.5"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="91.5" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="66">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="115.5">
+    <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -857,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33">
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -869,7 +632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="17">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -881,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="51.75" customHeight="1">
+    <row r="5" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -895,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="114.75" customHeight="1">
+    <row r="6" spans="1:4" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -909,222 +672,207 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="33">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
+      <c r="C7" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" ht="135.75" customHeight="1">
+    <row r="8" spans="1:4" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="134.25" customHeight="1">
+    </row>
+    <row r="9" spans="1:4" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="177.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:4" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" ht="294" customHeight="1">
+    </row>
+    <row r="11" spans="1:4" ht="294" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="240" customHeight="1">
+    </row>
+    <row r="12" spans="1:4" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="210.75" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" ht="132">
+        <v>30</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" ht="99">
+    </row>
+    <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="132">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
+      <c r="B17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" ht="16.5">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="33">
-      <c r="A20">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5"/>
-    <row r="22" ht="16.5">
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" ht="16.5">
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" ht="16.5">
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" ht="16.5">
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" ht="16.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" ht="16.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" ht="16.5">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" ht="16.5">
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" ht="16.5">
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" ht="16.5"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/experiment_implementation/data/stimuli_MultiplEYE_toy_x_x_1_1/multipleye_participant_instructions_toy.xlsx
+++ b/experiment_implementation/data/stimuli_MultiplEYE_toy_x_x_1_1/multipleye_participant_instructions_toy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cui/Documents/uzh/PhD/Projects/MeRID/repository/wg1-image-creation/data/stimuli_MultiplEYE_toy_x_x_1_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation-2/data/stimuli_MultiplEYE_TOY_X_x_1_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A092F-49A9-1D4C-BE4C-2832C75E3A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46E1B37-5F93-1545-80B6-C9782D052F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,6 +77,9 @@
     <t>final_screen</t>
   </si>
   <si>
+    <t>Thank you! You have completed the reading part!</t>
+  </si>
+  <si>
     <t>practice_screen</t>
   </si>
   <si>
@@ -112,12 +115,15 @@
   </si>
   <si>
     <t xml:space="preserve">
-Each text will be divided into multiple screens. Before each new text screen, you will see a black dot with a white centre shown at the top left corner of the screen. You must focus your eyes on the white centre of the dot to procede to the next screen. We will use this to check the accuracy of the eye-tracking, if the accuracy is low, we may need to recalibrate the eye-tracker. The experimenter will advise you if this is necessary, if not, you will automatically procede to the next text.
+Each text will be divided into multiple screens. Before each new text screen, you will see a black dot with a white centre shown at the top left corner of the screen. You must focus your eyes on the white centre of the dot to proceed to the next screen. We will use this to check the accuracy of the eye-tracking, if the accuracy is low, we may need to recalibrate the eye-tracker. The experimenter will advise you if this is necessary, if not, you will automatically proceed to the next screen.
 When you are finished reading each screen, please follow the same procedure to move on. Look at the **black dot** shown in the bottom right corner of the screen. While looking at the dot, press the **space bar** to continue to the next screen. **Please note, you won't be able to go back to a screen you have already read.**
 Please follow the above procedure to continue to the next screen.</t>
   </si>
   <si>
     <t>instruction_screen_3</t>
+  </si>
+  <si>
+    <t>After each text, you will be presented with several comprehension questions about the text. Each question will be presented on a separate screen together with four answer options. **There is only one correct answer.** Please select the correct answer option by using the arrow keys on the keyboard. The selected answer will be highlighted. Once you are happy with your answer, press the space bar to confirm your selection.</t>
   </si>
   <si>
     <t>instruction_screen_1</t>
@@ -163,46 +169,40 @@
 5 – 100% </t>
   </si>
   <si>
+    <t>camera_setup_screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please ask the experimenter to **adjust the camera,** set the correct **sampling frequency** and calibrate.
+Press the space bar to go to the camera setup screen. 
+Move your finger close to your **dominant eye.** The experimenter will check if the correct eye is being tracked. </t>
+  </si>
+  <si>
     <t>presented before the camera set-up, after the instructions</t>
   </si>
   <si>
-    <t>camera_setup_screen</t>
-  </si>
-  <si>
     <t>validation_screen</t>
   </si>
   <si>
+    <t>Now, we will validate the calibration of the camera and, if necessary, re-calibrate. Press the space bar to go to the calibration screen. </t>
+  </si>
+  <si>
     <t>Before each of the validations performed between trials.</t>
   </si>
   <si>
-    <t xml:space="preserve">After each text, you will be presented with several comprehension questions about the text. Each question will be presented on a separate screen together with four answer options. **There is only one correct answer.** Please select the correct answer option by using the arrow keys on the keyboard. The selected answer will be highlighted. Once you are happy with your answer, press the space bar to confirm your selection. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please ask the experimenter to adjust the camera and calibrate.
-Press the space bar to go to the camera setup screen. 
-Move your finger close to your dominant eye. The experimenter will check if the correct eye is being tracked. </t>
-  </si>
-  <si>
     <t>recalibration_screen</t>
   </si>
   <si>
+    <t>Now, we will recalibrate. Press the space bar to go to the calibration screen. </t>
+  </si>
+  <si>
     <t>presented before a trial when its previous trial has more then one triggers that fail to trigger.</t>
-  </si>
-  <si>
-    <t>Thank you! You have completed the reading part!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now, we will validate the calibration of the camera and, if necessary, re-calibrate. Press the space bar to go to the calibration screen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now, we will recalibrate. Press the space bar to go to the calibration screen. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,51 +211,25 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF305496"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +254,14 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -289,11 +269,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -304,33 +293,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,8 +359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D19">
-  <autoFilter ref="A1:D19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D20">
+  <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="instruction_screen_id" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="instruction_screen_name"/>
@@ -578,17 +581,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C19" sqref="C17:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="91.5" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -679,8 +682,8 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>47</v>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -689,13 +692,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -703,13 +706,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -717,24 +720,24 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="294" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="240" customHeight="1" x14ac:dyDescent="0.2">
@@ -742,21 +745,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>31</v>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -764,13 +767,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -778,97 +781,106 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>38</v>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>18</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>20</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="7"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
